--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2c1fd96b14a04c5e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8d31d3b64f8a44bf"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8d31d3b64f8a44bf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2c9e67967e884146"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2c9e67967e884146"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8cdb39a884e44134"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8cdb39a884e44134"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R422649a74fa14d86"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R422649a74fa14d86"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8c7bc71b47334564"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8c7bc71b47334564"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Read59f0f66074d74"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Read59f0f66074d74"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8f7169e7f52c439b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8f7169e7f52c439b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R95f6438a968a4055"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R95f6438a968a4055"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R543faac49e92453b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R543faac49e92453b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ra6973cd21aea41c0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ra6973cd21aea41c0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rd9d77ec92349425a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rd9d77ec92349425a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R55ec6199ed734ab5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R55ec6199ed734ab5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rba77f92af7a34bf1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rba77f92af7a34bf1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rcf70b97760bd457e"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rcf70b97760bd457e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R1f33887b9ca84900"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R1f33887b9ca84900"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R58b27b44a24e4cf8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R58b27b44a24e4cf8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9ca3b1e341804b87"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9ca3b1e341804b87"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rd22dc2b70142436c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rd22dc2b70142436c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R0b0e04e772014290"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R0b0e04e772014290"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R807453e9fe4d4822"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R807453e9fe4d4822"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R11b77dd600b64556"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R11b77dd600b64556"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9e79e7100ee44cb4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9e79e7100ee44cb4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8cb5cc42955b4111"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R8cb5cc42955b4111"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R39bbc351a21e4716"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R39bbc351a21e4716"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R874eb63aacfe4caa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R874eb63aacfe4caa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2b83b211a1244c40"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R2b83b211a1244c40"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R4b45a416cab44f33"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R4b45a416cab44f33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R342423c8724a439a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R342423c8724a439a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R40cc534528894bae"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R40cc534528894bae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf214d24754e14219"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf214d24754e14219"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ree8f30c24b864032"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ree8f30c24b864032"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R0f6453b861f64c9f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R0f6453b861f64c9f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R33bd72c6afaa4a0b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R33bd72c6afaa4a0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9ca7bda4798b4d10"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="R9ca7bda4798b4d10"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rb6330c903a764778"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rb6330c903a764778"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf1a86331a0f64616"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf1a86331a0f64616"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rc375d61a6d0b4ccd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rc375d61a6d0b4ccd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ra41c4f3f45ab4ebd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ra41c4f3f45ab4ebd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf421ee5dea024e4a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rf421ee5dea024e4a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ra10f7f6554a341f6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/36_RoundTripEditing.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Ra10f7f6554a341f6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Employees" sheetId="1" r:id="Rb35a8f8f6b7e434d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
